--- a/data/legendascore.xlsx
+++ b/data/legendascore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29160" yWindow="3020" windowWidth="27380" windowHeight="15660" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-20" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -91,147 +91,112 @@
     <t>worst</t>
   </si>
   <si>
-    <t>[LAND] heeft de laagste werkloosheid van Europa. Slechts [werkloosheid%] van de bevolking is werkloos. Dit is een zeer goede score. Momenteel zijn [werkloosabsolute] werkloos in [LAND]. Dit land heeft economische gezien de beste kansen op het gebied van werkloosheid. De hoogste kans op vooral blijvend werk.</t>
-  </si>
-  <si>
-    <t>[LAND] heeft een redelijk lage werkloosheid. Ongeveer [VALUE] van de bevolking is werkloos. Dit is een redelijk goede score als we kijken naar de rest van Europa. Momenteel zijn [VALUE-ABSOLUTE] werkloos in [LAND]. Dit land biedt de goede kans op blijvend werk.</t>
-  </si>
-  <si>
-    <t>[LAND] heeft een gemiddelde werkloosheid. Ongeveer [werkloosheid%] van de bevolking is werkloos. Dit is een gemiddele score als we kijken naar de rest van Europa. Momenteel zijn [werkloosabsolute] werkloos in [LAND]. Dit land representeerd het gemiddele van Europa</t>
-  </si>
-  <si>
-    <t>[LAND] heeft een redelijk hoge werkloosheid. Maar liefst [VALUE] van de bevolking is werkloos. Dit is een redelijk slechte score als we kijken naar de rest van Europa. Momenteel zijn [VALUE-ABSOLUTE] werkloos in [LAND]. Dit land heeft veel problemen met de werkloosheid van de bevolking.</t>
-  </si>
-  <si>
-    <t>[LAND] heeft de hoogste werkloosheid van Europa. Maar liefst [VALUE] van de bevolking is werkloos. Dit is een zeer slechte score als we kijken naar de rest van Europa. Momenteel zijn [VALUE-ABSOLUTE] werkloos in [LAND]. Een groot deel van de bevolking is werkloos, doordat het land in financiele problemen verkeerd.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je de grootste kans op het vinden van een baan. Het land scoort een [VALUE] / 4, wat een zeer hoge score is. [LAND] is het ideale land wanneer je alserkzoekende immigrant aan het werk wilt. Dit neemt natuurlijk niet weg dat er 
-direct werk te vinden is in de sector waarin jij op zoek bent.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je goede kans op het vinden van een baan. Het land scoort een [VALUE] 
-/ 4, wat een goede score is. [LAND] biedt genoeg vacatures aan voor werkzoekende 
-immigrant en inwoners die graag aan het werk willen. Dit neemt natuurlijk niet weg 
-dat er direct werk te vinden is in de sector waarin jij op zoek bent.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je gemiddelde kans op het vinden van een baan. Het land scoort een 
-[VALUE] / 4, wat het gemiddelde van Europa is. [LAND] biedt een redelijke 
-hoeveelheid vacatures aan voor werkzoekende immigrant en inwoners die graag aan het 
-werk willen. Dit neemt natuurlijk niet weg dat er direct werk te vinden is in de 
-sector waarin jij op zoek bent.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je lage kansen op het vinden van een baan. Het land scoort een [VALUE] 
-/ 4, wat een lage score is. [LAND] biedt weinig vacatures aan voor werkzoekende 
-immigrant en inwoners welke werk zoeken. De kans dat je direct werk vindt in jouw 
-branche is laag.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je nauwlijks kans op het vinden van een baan. Het land scoort een 
-[VALUE] / 4, wat de laagste score binnen Europa is. Wanneer je als immigrant op zoek 
-bent naar werk, dan heb je zeer weinig kans in [LAND]. Hierbij is de kans dat je 
-werk vindt binnen jouw branche zeer gering.</t>
-  </si>
-  <si>
-    <t>In [LAND] verdien je gemiddeld het hoogste inkomen van Europa. Het land het een gemiddeld inkomen van maar liefst €[VALUE] per jaar. Het gemiddeld inkomen van Europa ligt rond de €1650 per jaar. [LAND] ligt ver boven dit gemiddelde en is ideaal voor de goudzoekers binnen Europa.</t>
-  </si>
-  <si>
-    <t>In [LAND] verdien je een goed inkomen. Het land het een gemiddeld inkomen van ongeveer €[VALUE] per jaar. Het gemiddeld inkomen van Europa ligt rond de €1650 per jaar. [LAND] heeft dus een goede positie ten overstaan van het gemiddelde.</t>
-  </si>
-  <si>
-    <t>In [LAND] verdien je een gemiddeld inkomen. Het land het een gemiddeld inkomen van ongeveer €[VALUE] per jaar, wat ongeveer gelijk staat aan het gemiddeld inkomen van Europa. [LAND] representeerd dus het gemiddelde van Europa.</t>
-  </si>
-  <si>
-    <t>In [LAND] verdien je veelal een laag inkomen. Het land het een gemiddeld inkomen van ongeveer €[VALUE] per jaar. Het gemiddeld inkomen van Europa ligt rond de €1650 per jaar. In [LAND] verdien je dus een lager inkomen. Maar de prijzen in dit land zijn ook lager dan de prijzen van landen die hoger scoren.</t>
-  </si>
-  <si>
-    <t>In [LAND] verdien je het laagste inkomen van Europa. Het land het een gemiddeld inkomen van ongeveer €[INKOMEN] per jaar. Het gemiddeld inkomen van Europa ligt rond de €1650 per jaar. In [VALUE] werk je dus ver onder het gemiddeld inkomen van Europa. Hierdoor zul je een stuk minder luxe en welvaart ervaren dan Westerlijk Europa.</t>
-  </si>
-  <si>
-    <t>[LAND] scoort het beste van Europa als het gaat om inkomstenongelijkheid.
- Het land scoort een [VALUE] / 100 in de Gini-index. Dit is een getal van 0 tot 100, waarin de mate van ongelijkheid wordt vastgesteld. Hoe hoger het getal, hoe ongelijker een land qua inkomen heeft. 
-Het overgrote deel van de inwoners van [LAND] hebben gelijke inkomens en gelijke welvaart.</t>
-  </si>
-  <si>
-    <t>[LAND] scoort goed als het gaat om inkomstenongelijkheid.
- Het land scoort een [VALUE] / 100 in de Gini-index. Dit is een getal van 0 tot 100, waarin de mate van ongelijkheid wordt vastgesteld. Hoe lager dit getal is, hoe gelijker alle inkomen en welvaart van een land is. [LAND] heeft een goede index. Hoewel er verschil is tussen we complete welvaart van de burgers, hebben alle burgers gelijke kansen.</t>
-  </si>
-  <si>
-    <t>[LAND] scoort gemiddeld als het gaat om inkomstenongelijkheid.
- Het land scoort een [VALUE] / 100 in de Gini-index. Dit is een getal van 0 tot 100, waarin de mate van ongelijkheid wordt vastgesteld. Hoe lager dit getal is, hoe gelijker alle inkomen en welvaart van een land is. [LAND] heeft een gemiddelde index. Hoewel er verschil is tussen we complete welvaart van de burgers, hebben alle burgers goede kansen.</t>
-  </si>
-  <si>
-    <t>[LAND] scoort redelijk laag als het gaat om inkomstenongelijkheid.
- Het land scoort een [VALUE] / 100 in de Gini-index. Dit is een getal van 0 tot 100, waarin de mate van ongelijkheid wordt vastgesteld. Hoe lager dit getal is, hoe gelijker alle inkomen en welvaart van een land is. [LAND] heeft een redelijke hoge gini-index, wat betekent dat er veel ongelijkheid tussen rijk en arm heerst in het land.</t>
-  </si>
-  <si>
-    <t>[LAND] scoort slechtste als het gaat om inkomstenongelijkheid.
- Het land scoort een [VALUE] / 100 in de Gini-index. Dit is een getal van 0 tot 100, waarin de mate van ongelijkheid wordt vastgesteld. Hoe lager dit getal is, hoe gelijker alle inkomen en welvaart van een land is. De ongelijkheid tussen rijk en arm in [LAND] is enorm.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je de meeste vrijheid en inspraak van Europa. Het land scoort een [VALUE] / 100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe lager het getal, hoe meer vrijheid en inspraak. [LAND] heeft de laagste mogelijke score van Europa en is hierbij het beste land van Europa.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je veel rechten binnen vrijheid en inspraak. Het land scoort een [VALUE] / 100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe lager het getal, hoe meer vrijheid en inspraak. [LAND] heeft de goede score, waardoor ze tot de top van Europa behoren.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je gemiddelde rechten binnen vrijheid en inspraak. Het land scoort een [VALUE] / 100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe lager het getal, hoe meer vrijheid en inspraak. [LAND] representeerd het gemiddelde van Europa qua score.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je weinig rechten binnen vrijheid en inspraak. Het land scoort een [VALUE] / 100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe lager het getal, hoe meer vrijheid en inspraak. [LAND] heeft een hoge score, waardoor de inwoners veelal onderdrukt worden en weinig vrijheid en inspraak hebben.</t>
-  </si>
-  <si>
-    <t>In [LAND] heb je nauwelijks rechten binnen vrijheid en inspraak. Het land scoort een [VALUE] / 100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe lager het getal, hoe meer vrijheid en inspraak. [LAND] heeft de hoogste score van Europa, doordat de macht bij een selecte groep ligt en tegenspraak niet geduld wordt.</t>
-  </si>
-  <si>
-    <t>[LAND] staat het meeste open voor andere culturen en waardes van hun inwoners. In [LAND] kun je probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE] / 100 op de anti-discriminatie schaal. Dit is de beste score van Europa. Dit maakt [LAND] het meest tolerante land van Europa.</t>
-  </si>
-  <si>
-    <t>[LAND] staat goed open voor andere culturen en waardes van hun inwoners. In [LAND] kun je veelal probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE] / 100 op de anti-discriminatie schaal. Dit is een zeer goede score in vergelijking tot de rest van Europa. Dit maakt [LAND] een zeer tolerante land.</t>
-  </si>
-  <si>
-    <t>[LAND] is open minded voor andere culturen en waardes van hun inwoners. In [LAND] kun je meestal probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE] / 100 op de anti-discriminatie schaal. Dit is een goede score in vergelijking tot de rest van Europa. Dit maakt [LAND] een tolerante land.</t>
-  </si>
-  <si>
-    <t>[LAND] is nauwelijks open minded voor andere culturen en waardes van hun inwoners. In [LAND] kun je nauwlijks probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE] / 100 op de anti-discriminatie schaal. Dit is een lage score in vergelijking tot de rest van Europa. Dit maakt [LAND] een intolerante land.</t>
-  </si>
-  <si>
-    <t>[LAND] is niet open minded voor andere culturen en waardes van hun inwoners. In [LAND] kun je niet probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE] / 100 op de anti-discriminatie schaal. Dit is een laagste score van Europa. Dit maakt [LAND] het minstintolerante land van Europa.</t>
-  </si>
-  <si>
-    <t>In [LAND] is geen tot nauwelijks corruptie. Eerlijker dan [LAND] krijg je het niet in Europa. Het land scroort een [VALUE] 
-/ 100 op de corrupieschaal. Hoe lager dit getal, hoe meer corruptie er plaatsvind in een land. Wanneer er afspraken worden 
-gemaakt in [LAND], dan worden deze nagekomen. Het volk wordt niet bedreigd door de overheid en deze is ook niet 
-omkoopbaar.</t>
-  </si>
-  <si>
-    <t>In [LAND] is bijna geen corruptie. [LAND] is een zeer eerlijk land ten overstaan van de rest van Europa. Het land scroort 
-een [VALUE] / 100 op de corrupieschaal. Hoe lager dit getal, hoe meer corruptie er plaatsvind in een land. Wanneer er 
-afspraken worden gemaakt in [LAND], dan worden deze veelal nagekomen. Het volk wordt niet bedreigd door de overheid en 
-deze is ook niet omkoopbaar.</t>
-  </si>
-  <si>
-    <t>In [LAND] is nauwelijks corruptie. [LAND] scoort gemiddeld ten overstaan van de rest van Europa. Het land scroort een 
-[VALUE] / 100 op de corrupieschaal. Hoe lager dit getal, hoe meer corruptie er plaatsvind in een land. Wanneer er 
-afspraken worden gemaakt in [LAND], dan worden deze meestal nagekomen. Het volk wordt nauwelijks bedreigd door de overheid 
-en deze is nauwelijks omkoopbaar.</t>
-  </si>
-  <si>
-    <t>In [LAND] vindt corruptie plaats. [LAND] scoort slecht ten overstaan van de rest van Europa. Het land scroort een [VALUE] 
-/ 100 op de corrupieschaal. Hoe lager dit getal, hoe meer corruptie er plaatsvind in een land. Wanneer er afspraken worden 
-gemaakt in [LAND], dan worden deze soms niet nagekomen. Het volk wordt soms bedreigd door de overheid en deze is voor het 
-juiste bedrag omkoopbaar.</t>
-  </si>
-  <si>
-    <t>In [LAND] vindt veel corruptie plaats. [LAND] scoort het slechtst van Europa. Het land scroort een [VALUE] / 100 op de 
-corrupieschaal. Hoe lager dit getal, hoe meer corruptie er plaatsvind in een land. Wanneer er afspraken worden gemaakt in 
-[LAND], dan worden deze vaak niet nagekomen. Het volk wordt vaak bedreigd door de overheid en deze is gemakkelijk 
-omkoopbaar.</t>
-  </si>
-  <si>
-    <t>typescore</t>
+    <t>In [LAND] heb je de meeste vrijheid en inspraak van Europa. Het land scoort een [VALUE]/100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe lager dit getal, hoe minder het volk wordt onderdrukt door de machthebbende partij. [LAND] heeft de laagste mogelijke score van Europa en is hierbij het land met de meeste vrijheid en inspraak.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je veel rechten binnen vrijheid en inspraak. Het land scoort een [VALUE]/100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe lager dit getal, hoe minder het volk wordt onderdrukt door de machthebbende partij. [LAND] heeft de goede score, waardoor ze tot de top van Europa behoren.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je gemiddelde rechten binnen vrijheid en inspraak. Het land scoort een [VALUE]/100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe lager dit getal, hoe minder het volk wordt onderdrukt door de machthebbende partij. [LAND] representeert het gemiddelde van Europa qua score.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je weinig rechten binnen vrijheid en inspraak. Het land scoort een [VALUE]/100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe hoger dit getal, hoe meer het volk wordt onderdrukt door de machthebbende partij. [LAND] heeft een hoge score, waardoor de inwoners veelal onderdrukt worden en weinig vrijheid en inspraak hebben.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je nauwelijks rechten binnen vrijheid en inspraak. Het land scoort een [VALUE]/100 op basis van vrijheid. Dit is een getal van 0 tot 100, waarin de vrijheid en inspraak van een land wordt gemeten. Hoe hoger dit getal, hoe meer het volk wordt onderdrukt door de machthebbende partij. [LAND] heeft de hoogste score van Europa, doordat de macht bij een selecte groep ligt en tegenspraak niet geduld wordt.</t>
+  </si>
+  <si>
+    <t>In [LAND] verdien je gemiddeld het hoogste inkomen van Europa. Het land heeft een gemiddeld inkomen van maar liefst €[VALUE] per jaar. Het gemiddeld inkomen van Europa ligt rond de €1650 per jaar. [LAND] ligt ver boven dit gemiddelde en is ideaal voor de goudzoekers binnen Europa.</t>
+  </si>
+  <si>
+    <t>In [LAND] verdien je een goed inkomen. Het land heeft een gemiddeld inkomen van ongeveer €[VALUE] per jaar. Het gemiddeld inkomen van Europa ligt rond de €1650 per jaar. [LAND] heeft dus een goede positie ten overstaan van het gemiddelde.</t>
+  </si>
+  <si>
+    <t>In [LAND] verdien je een gemiddeld inkomen. Het land heeft een gemiddeld inkomen van ongeveer €[VALUE] per jaar, wat ongeveer gelijk staat aan het gemiddeld inkomen van Europa. [LAND] representeerd dus het gemiddelde van Europa.</t>
+  </si>
+  <si>
+    <t>In [LAND] verdien je veelal een laag inkomen. Het land heeft een gemiddeld inkomen van ongeveer €[VALUE] per jaar. Het gemiddeld inkomen van Europa ligt rond de €1650 per jaar. In [LAND] verdien je dus een lager inkomen. Maar de prijzen in dit land zijn ook lager dan de prijzen van landen die hoger scoren.</t>
+  </si>
+  <si>
+    <t>In [LAND] verdien je het laagste inkomen van Europa. Het land heeft een gemiddeld inkomen van ongeveer €[INKOMEN] per jaar. Het gemiddeld inkomen van Europa ligt rond de €1650 per jaar. In [VALUE] werk je dus ver onder het gemiddeld inkomen van Europa. Hierdoor zul je een stuk minder luxe en welvaart ervaren dan Westerlijk Europa.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je de grootste kans op het vinden van een baan. Het land scoort een [VALUE]/4, wat een zeer hoge score is. [LAND] is het ideale land wanneer je als werkzoekende immigrant aan het werk wilt. Dit neemt natuurlijk niet weg dat er direct werk te vinden is binnen de sector waarin jij op zoek bent.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je goede kans op het vinden van een baan. Het land scoort een [VALUE]/4, wat een goede score is. [LAND] biedt genoeg vacatures aan voor werkzoekende immigrant en inwoners die graag aan het werk willen. Dit neemt natuurlijk niet weg dat er direct werk te vinden is binnen de sector waarin jij op zoek bent.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je gemiddelde kans op het vinden van een baan. Het land scoort een [VALUE]/4, wat het gemiddelde van Europa is. [LAND] biedt een redelijke hoeveelheid vacatures aan voor werkzoekende immigrant en inwoners die graag aan het werk willen. Dit neemt natuurlijk niet weg dat er direct werk te vinden is binnen de sector waarin jij op zoek bent.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je lage kansen op het vinden van een baan. Het land scoort een [VALUE]/4, wat een lage score is. [LAND] biedt weinig vacatures aan voor werkzoekende immigrant en inwoners welke werk zoeken. De kans dat je direct werk vindt in jouw branche is laag.</t>
+  </si>
+  <si>
+    <t>In [LAND] heb je nauwlijks kans op het vinden van een baan. Het land scoort een [VALUE]/4, wat de laagste score binnen Europa is. Wanneer je als immigrant op zoek bent naar werk, dan heb je zeer weinig kans in [LAND]. Hierbij is de kans dat je werk vindt binnen jouw sector zeer gering.</t>
+  </si>
+  <si>
+    <t>[LAND] heeft de laagste werkloosheid van Europa. Slechts [VALUE]% van de bevolking is werkloos. Dit is een zeer goede score. Momenteel is de werkloosheid in [LAND] zeer laag. Dit land heeft economische gezien de beste kansen op het gebied van werkloosheid. De hoogste kans op vooral blijvend werk.</t>
+  </si>
+  <si>
+    <t>[LAND] heeft een redelijk lage werkloosheid. Ongeveer [VALUE]% van de bevolking is werkloos. Dit is een redelijk goede score als we kijken naar de rest van Europa. Momenteel is de werkloosheid in [LAND] redelijk laag. Dit land biedt de goede kans op blijvend werk.</t>
+  </si>
+  <si>
+    <t>[LAND] heeft een gemiddelde werkloosheid. Ongeveer [VALUE]% van de bevolking is werkloos. Dit is een gemiddele score als we kijken naar de rest van Europa. Momenteel is de werkloosheid in [LAND] gemiddeld. Dit land representeerd het gemiddelde van Europa.</t>
+  </si>
+  <si>
+    <t>[LAND] heeft een redelijk hoge werkloosheid. Maar liefst [VALUE]% van de bevolking is werkloos. Dit is een redelijk slechte score als we kijken naar de rest van Europa. Momenteel is de werkloosheid in [LAND] hoog. Dit land heeft veel problemen met de werkloosheid van de bevolking.</t>
+  </si>
+  <si>
+    <t>[LAND] heeft de hoogste werkloosheid van Europa. Maar liefst [VALUE]% van de bevolking is werkloos. Dit is een zeer lage score als we kijken naar de rest van Europa. Momenteel is de werkloosheid in [LAND] ontzettend hoog. Een groot deel van de bevolking is werkloos, doordat het land in financiele problemen verkeerd.</t>
+  </si>
+  <si>
+    <t>[LAND] staat het meeste open voor de verschillende culturen en waardes van hun inwoners. In [LAND] kun je probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE]/100 op de anti-discriminatie schaal. Dit is de beste score van Europa. Dit maakt [LAND] het meest tolerante land van Europa.</t>
+  </si>
+  <si>
+    <t>[LAND] staat goed open voor de verschillende culturen en waardes van hun inwoners. In [LAND] kun je veelal probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE]/100 op de anti-discriminatie schaal. Dit is een zeer goede score in vergelijking tot de rest van Europa. Dit maakt [LAND] een zeer tolerant land.</t>
+  </si>
+  <si>
+    <t>[LAND] is open minded voor de verschillende culturen en waardes. In [LAND] kun je meestal probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE]/100 op de anti-discriminatie schaal. Dit is een goede score in vergelijking tot de rest van Europa. Dit maakt [LAND] een tolerant land.</t>
+  </si>
+  <si>
+    <t>[LAND] is nauwelijks open minded voor de verschillende culturen en waardes van hun inwoners. In [LAND] kun je nauwlijks probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE]/100 op de anti-discriminatie schaal. Dit is een lage score in vergelijking tot de rest van Europa. Dit maakt [LAND] een intolerant land.</t>
+  </si>
+  <si>
+    <t>[LAND] is niet open minded voor de verschillende culturen en waardes van hun inwoners. In [LAND] kun je niet probleemloos uitkomen voor je normen, waarden, leefstijl en geloof. Het land scoort een [VALUE]/100 op de anti-discriminatie schaal. Dit is een laagste score van Europa. Dit maakt [LAND] het meest intolerante land van Europa.</t>
+  </si>
+  <si>
+    <t>In [LAND] vindt geen tot nauwelijks corruptie plaats. Eerlijker dan [LAND] krijg je het niet in Europa. Het land scoort een [VALUE]/100 op de corrupieschaal. Hoe hoger dit getal, hoe lager de corruptie van een land. Wanneer er afspraken worden gemaakt in [LAND], dan worden deze nagekomen. Het volk wordt niet bedreigd door de overheid en deze is ook niet omkoopbaar.</t>
+  </si>
+  <si>
+    <t>In [LAND] vindt bijna geen corruptie plaats. [LAND] is een zeer eerlijk land ten overstaan van de rest van Europa. Het land scoort een [VALUE]/100 op de corrupieschaal. Hoe lager dit getal, hoe meer corruptie er plaatsvind in een land. Wanneer er afspraken worden gemaakt in [LAND], dan worden deze veelal nagekomen. Het volk wordt niet bedreigd door de overheid en deze is ook niet omkoopbaar.</t>
+  </si>
+  <si>
+    <t>In [LAND] vindt nauwelijks corruptie plaats. [LAND] scoort gemiddeld ten overstaan van de rest van Europa. Het land scoort een [VALUE]/100 op de corrupieschaal. Hoe hoger dit getal, hoe lager de corruptie van een land. Wanneer er afspraken worden gemaakt in [LAND], dan worden deze meestal nagekomen. Het volk wordt nauwelijks bedreigd door de overheid en deze is nauwelijks omkoopbaar.</t>
+  </si>
+  <si>
+    <t>In [LAND] vindt corruptie plaats. [LAND] scoort slecht ten overstaan van de rest van Europa. Het land scoort een [VALUE]/100 op de corrupieschaal. Hoe lager dit getal, hoe hoger de corruptie van een land. Wanneer er afspraken worden gemaakt in [LAND], dan worden deze soms niet nagekomen. Het volk wordt soms bedreigd door de overheid en deze is voor het juiste bedrag omkoopbaar.</t>
+  </si>
+  <si>
+    <t>In [LAND] vindt veel corruptie plaats. [LAND] scoort het slechtst van Europa. Het land scoort een [VALUE]/100 op de corrupieschaal. Hoe lager dit getal, hoe hoger de corruptie van een land. Wanneer er afspraken worden gemaakt in [LAND], dan worden deze vaak niet nagekomen. Het volk wordt vaak bedreigd door de overheid en deze is gemakkelijk omkoopbaar.</t>
+  </si>
+  <si>
+    <t>[LAND] scoort het beste van Europa als het gaat om inkomstenongelijkheid. Het verschil tussen arm en rijk is ontzettend klein. De rijkste groep uit [LAND] heeft slechts [VALUE]x meer koopkracht dan de armste groep van het land. Het overgrote deel van de inwoners van [LAND] hebben dus gelijke inkomens en een gelijke welvaart. Dit maakt [LAND] het beste land van Europa, binnen gelijkheid.</t>
+  </si>
+  <si>
+    <t>[LAND] scoort goed binnen Europa als het gaat om inkomstenongelijkheid. Het verschil tussen arm en rijk is klein. De rijkste groep uit [LAND] heeft maar [VALUE]x meer koopkracht dan de armste groep van het land. Een groot deel van de inwoners van [LAND] hebben dus gelijke inkomens en een gelijke welvaart. Dit maakt [LAND] een zeer gelijk en welvarend land.</t>
+  </si>
+  <si>
+    <t>[LAND] scoort gemiddeld binnen Europa als het gaat om inkomstenongelijkheid. Het verschil tussen arm en rijk is aanwezig, maar niet al te groot. De rijkste groep uit [LAND] heeft [VALUE]x meer koopkracht dan de armste groep van het land. Een groot deel van de inwoners van [LAND] hebben dus gelijke inkomens en een gelijke welvaart. Dit maakt [LAND] grotendeels gelijk en welvarend land.</t>
+  </si>
+  <si>
+    <t>[LAND] scoort laag binnen Europa als het gaat om inkomstenongelijkheid. Het verschil tussen arm en rijk is erg aanwezig, waarbij de armste groep vaak erg weinig inkomen krijgen. De rijkste groep uit [LAND] heeft maar liefst [VALUE]x meer koopkracht dan de armste groep van het land. De gelijkheid en welvaart in [LAND] is erg verdeeld. Dit maakt het [LAND] grotendeels ongelijk.</t>
+  </si>
+  <si>
+    <t>[LAND] scoort het laagst binnen Europa als het gaat om inkomstenongelijkheid. Het verschil tussen arm en rijk is ontzettend groot. De rijkste groep uit [LAND] heeft maar liefst [VALUE]x meer koopkracht dan de armste groep van het land. Dit is een selecte groep welke bijna al het geld van het land in handen heeft. De gelijkheid en welvaart in [LAND] is onvoorstelbaar groot. Terwijl de armste groep bijna niets heeft, heeft de rijkste groep alles in handen.</t>
+  </si>
+  <si>
+    <t>legendascore</t>
   </si>
 </sst>
 </file>
@@ -302,19 +267,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,164 +621,168 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="41.75" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
     <col min="5" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="39" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78" customHeight="1">
+    <row r="2" spans="1:8" ht="189" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="58.5" customHeight="1">
+    <row r="3" spans="1:8" ht="130">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="72" customHeight="1">
+    <row r="4" spans="1:8" ht="195" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" ht="69" customHeight="1">
+    <row r="5" spans="1:8" ht="189" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" ht="83.25" customHeight="1">
+    <row r="6" spans="1:8" ht="186" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
